--- a/src/utest/testdata/testdata.xlsx
+++ b/src/utest/testdata/testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sirius/Documents/06code/BearFramework/src/utest/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/06code_new/BearFramework/src/utest/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA643FC4-A09C-1C4E-A90F-BED82185EB55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DA0403-4174-6343-B396-1F0985EAAA29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="1680" windowWidth="22880" windowHeight="9800" activeTab="1" xr2:uid="{7CD8C965-9F4E-9845-AB4A-4BE0FE034B6E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{7CD8C965-9F4E-9845-AB4A-4BE0FE034B6E}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>DataID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,15 +53,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kc@123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${time.now}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -132,14 +124,31 @@
     <t>$list{3,4.int,5}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>$data{users.admin.mobile}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$resdata{peaple.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sz_bchqc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cass1713</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-  </numFmts>
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -186,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -233,19 +242,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -255,7 +251,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -283,9 +279,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -294,15 +287,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3695,8 +3679,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2321859</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -4050,8 +4034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A7E581-A715-3F4A-B9DA-89175F56E0BA}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4084,10 +4068,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17">
@@ -4120,7 +4104,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{FFF3C873-1FB3-144F-A6E2-C131214758A6}"/>
+    <hyperlink ref="D2" r:id="rId1" display="root@123" xr:uid="{FFF3C873-1FB3-144F-A6E2-C131214758A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -4131,57 +4115,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2897003-447D-224F-966C-D66EF2096CF4}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" customWidth="1"/>
     <col min="8" max="8" width="16.33203125" customWidth="1"/>
     <col min="9" max="9" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="10" t="s">
+      <c r="H1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -4192,45 +4176,75 @@
         <v>4</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="K2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>23</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="9"/>
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="17">
       <c r="A4" s="3"/>
@@ -4267,9 +4281,11 @@
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" display="!@#" xr:uid="{59632290-7543-C94A-B945-2C70F01F0582}"/>
     <hyperlink ref="I2" r:id="rId2" xr:uid="{D040B466-36E1-7C45-9B08-FAE87ECB6AB8}"/>
+    <hyperlink ref="K3" r:id="rId3" display="!@#" xr:uid="{FCC75650-A35C-544C-A328-76AF3A4C9D0C}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{2E97C025-A512-134B-9AEB-634945DFBD7C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
